--- a/Data/Input/Without_observations/xlsx/zadatak_2862019.xlsx
+++ b/Data/Input/Without_observations/xlsx/zadatak_2862019.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Surveyer\Data\Input\Without_observations\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
     <sheet name="Observations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -34,12 +29,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>FIX_X</t>
-  </si>
-  <si>
-    <t>FIX_Y</t>
-  </si>
-  <si>
     <t>Point_object</t>
   </si>
   <si>
@@ -101,6 +90,39 @@
   </si>
   <si>
     <t>sd_Vz</t>
+  </si>
+  <si>
+    <t>dh</t>
+  </si>
+  <si>
+    <t>sd_dh</t>
+  </si>
+  <si>
+    <t>d_dh</t>
+  </si>
+  <si>
+    <t>n_dh</t>
+  </si>
+  <si>
+    <t>e_cent_from</t>
+  </si>
+  <si>
+    <t>e_cent_to</t>
+  </si>
+  <si>
+    <t>e_focus</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>FIX_1D</t>
+  </si>
+  <si>
+    <t>FIX_2D</t>
+  </si>
+  <si>
+    <t>e_air</t>
   </si>
 </sst>
 </file>
@@ -213,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,7 +270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,15 +479,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,44 +504,44 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>393.97899999999998</v>
       </c>
       <c r="D2">
         <v>419.03800000000001</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>366.358</v>
@@ -524,22 +549,19 @@
       <c r="D3">
         <v>550.13800000000003</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>601.90300000000002</v>
@@ -547,22 +569,19 @@
       <c r="D4">
         <v>632.17100000000005</v>
       </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>705.48099999999999</v>
@@ -570,22 +589,19 @@
       <c r="D5">
         <v>538.63800000000003</v>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>500</v>
@@ -593,22 +609,19 @@
       <c r="D6" s="2">
         <v>500</v>
       </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
       <c r="G6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>585.02300000000002</v>
@@ -616,22 +629,19 @@
       <c r="D7">
         <v>548.60900000000004</v>
       </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
       <c r="G7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>542.51099999999997</v>
@@ -639,13 +649,10 @@
       <c r="D8">
         <v>524.30399999999997</v>
       </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
       <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -656,209 +663,377 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K13"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="21" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="K2">
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="K3">
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
         <v>3</v>
       </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
